--- a/GLI_Has_FVC_Percent_Predicted.xlsx
+++ b/GLI_Has_FVC_Percent_Predicted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbhati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE391A62-9FC6-4035-8F8D-EA67405EFE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759BF265-3945-482F-9C86-BD36AD753BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="2790" windowWidth="19290" windowHeight="11085" xr2:uid="{9503BF40-06F6-4912-9146-D582181AD3EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9503BF40-06F6-4912-9146-D582181AD3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Male</t>
   </si>
@@ -50,13 +50,16 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>FVC</t>
-  </si>
-  <si>
     <t>FVC % Predicted</t>
   </si>
   <si>
-    <t>FEV1</t>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>FEV1 (L)</t>
+  </si>
+  <si>
+    <t>FVC (L)</t>
   </si>
 </sst>
 </file>
@@ -476,17 +479,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,15 +503,15 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>66</v>
